--- a/Lab 4 - Exel Vector Behaviours/absExample-lab (1).xlsx
+++ b/Lab 4 - Exel Vector Behaviours/absExample-lab (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fondo\Desktop\AI-in-the-wild\Lab 4 - Exel Vector Behaviours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8196C6-F9FC-420F-9E01-A85B0A4CD481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEF468-5D23-4892-B78C-6C11DD49EE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{56DC7B23-590F-4E30-B993-F1A4F72C03A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hide" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>B</t>
   </si>
@@ -145,13 +145,49 @@
   </si>
   <si>
     <t>A Protect Behaviour</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Vector AR</t>
+  </si>
+  <si>
+    <t>Dot Product</t>
+  </si>
+  <si>
+    <t>AR.AB</t>
+  </si>
+  <si>
+    <t>Direction Vector AB</t>
+  </si>
+  <si>
+    <t>Magnitude Squared of AB</t>
+  </si>
+  <si>
+    <t>Projection Scalar</t>
+  </si>
+  <si>
+    <t>Clamp</t>
+  </si>
+  <si>
+    <t>|AB|²</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>t'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +229,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,6 +353,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -442,30 +488,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAB95861-2F66-4F49-9A9F-52B7438DA5AD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2DBF132E-C8AC-4AAC-AFEF-56536CFD6514}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{7C78E2C2-9288-4AAF-AFC2-CB5AD5D24E57}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{61D08388-2B30-427E-B67F-1DDFF20F5996}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{6A5D540F-BDD7-4758-BCE9-ECDB93C0F83F}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{7C530041-F9D9-4DA7-836F-D4FA9A6E49E6}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -494,30 +540,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5237665B-C734-4784-9082-0407E5325A98}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BC71A2EA-CEA7-4B15-800F-25F02B89DF5B}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{CE7255C8-AF17-48A3-AEDA-163041D5C6CC}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{B35F15B3-7492-467D-B2E3-EDDFB51C4449}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{3519C3FD-A20F-4433-9ED6-C20ECD169A2E}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{1B234FB5-C924-4565-B0C7-5B39E96A81E3}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -546,30 +592,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CCC8D93-9283-4B63-8A2F-A33E239F1E85}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{8DED7ACF-3B1C-43FC-B1B7-A7124FBA5379}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1A651D73-E5D1-4F95-8FDD-110C5CA35E91}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{815039D4-0954-44D4-B3A6-1919EBC2F6A7}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{73410B20-AA38-417D-B559-26DF17D5DA5E}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{FE590BE7-4876-4DF9-9D53-E51CBABC7040}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -598,30 +644,30 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AFBFD3E-501F-443D-9C63-35C3BC3BCCC3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{B34C5B70-AA45-40C8-ABDE-8695072CFC41}" type="CELLRANGE">
+                      <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{A38C2271-7875-4429-A57E-B06129777FD2}" type="XVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{C40B2BCE-1F9D-4AFD-838F-9CE44313A77A}" type="XVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{E708CEB0-A97D-4FD7-A639-7C58337FBCA6}" type="YVALUE">
-                      <a:rPr lang="en-US" baseline="0"/>
+                    <a:fld id="{9E634433-AF99-46BF-A0E2-EFF89CDDE2B2}" type="YVALUE">
+                      <a:rPr lang="en-IE" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0"/>
+                    <a:endParaRPr lang="en-IE" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1110,7 +1156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8CDBF21-4EAC-487E-AC79-EE0CBFDE61FF}" type="CELLRANGE">
+                    <a:fld id="{26CE7999-DDA5-4F35-BBD5-7F318F0DA9AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1119,7 +1165,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{1E0E7F47-8648-415E-8ABE-4FC565C3DD8D}" type="XVALUE">
+                    <a:fld id="{697A4B6E-7511-4257-93F9-D35BC20DE719}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1128,7 +1174,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{DB2EB991-2C95-42A4-B781-449059E853B0}" type="YVALUE">
+                    <a:fld id="{ABAD2617-619B-4209-A0D3-B1200830D23E}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1162,7 +1208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F338BAA-61D2-496B-BF52-B33F6AF5222B}" type="CELLRANGE">
+                    <a:fld id="{66AC5CA0-5FE1-4D88-9A43-02AF46ADB5FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1171,7 +1217,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{F125A276-6512-44FF-ACBD-581F00754F7D}" type="XVALUE">
+                    <a:fld id="{D288C548-D41C-401F-BDB6-65F1D8DC2084}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1180,7 +1226,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5836D7F5-B2A2-4881-9FDB-54F56CE0BAA7}" type="YVALUE">
+                    <a:fld id="{C83F57C6-D45D-4B5F-8802-97F2DBE6ED99}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1214,7 +1260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFD3E2B7-AC9F-4401-BB49-94BEECFC06DF}" type="CELLRANGE">
+                    <a:fld id="{6858EB2E-9A50-4E45-AC53-91331567AF25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1223,7 +1269,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{038BB5F4-6397-4AC7-824F-A3B9A023962D}" type="XVALUE">
+                    <a:fld id="{774BFFBB-23F8-4DFB-8C93-BF5DA6812377}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1232,7 +1278,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{00CBC234-5F46-44DA-B3A9-F1527F9EE281}" type="YVALUE">
+                    <a:fld id="{AAD6E7CD-58BC-4CF3-AAB4-751F0EF91349}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1266,7 +1312,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9721DCB-1616-4A48-A8A6-EA4558B33268}" type="CELLRANGE">
+                    <a:fld id="{521EA5C4-BB3A-4897-BE0C-50C2924D4025}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1275,7 +1321,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{2CBFBF63-0236-4B78-9C46-ED43CEBC6945}" type="XVALUE">
+                    <a:fld id="{642B8D05-384F-4778-9721-6EA2318C6F50}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1284,7 +1330,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{0AB07399-33B8-403D-B1CC-9AB44E51F234}" type="YVALUE">
+                    <a:fld id="{A6FB55E9-6D38-497A-BD15-4D693A0364B0}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1318,7 +1364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB59C919-61E6-496F-B7C4-34BBE3B449C2}" type="CELLRANGE">
+                    <a:fld id="{E4AEFA7F-C5F9-4826-B295-54FF1D3F8B82}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1327,7 +1373,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{19D2E17F-17B7-4D5D-A6D8-EB6D10BAF108}" type="XVALUE">
+                    <a:fld id="{462A905A-94AA-40BE-9719-C1B3CF7580A2}" type="XVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X VALUE]</a:t>
@@ -1336,7 +1382,7 @@
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{19C17080-0B1C-45FF-8679-0ED3785F4FB5}" type="YVALUE">
+                    <a:fld id="{2A7A2D6C-4151-4E4F-80BD-73C265854454}" type="YVALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
                       <a:t>[Y VALUE]</a:t>
@@ -1425,7 +1471,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>(Protect!$O$12:$O$15,Protect!$O$20)</c:f>
+              <c:f>(Protect!$O$12:$O$15,Protect!$O$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1449,7 +1495,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Protect!$P$12:$P$15,Protect!$P$20)</c:f>
+              <c:f>(Protect!$P$12:$P$15,Protect!$P$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1475,7 +1521,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(Protect!$N$12:$N$15,Protect!$N$20)</c15:f>
+                <c15:f>(Protect!$N$12:$N$15,Protect!$N$24)</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
@@ -3452,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677D4DD6-9DB9-4330-B473-8E9FCFE6A7A8}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,9 +3691,20 @@
         <f>L14/K15</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1">
+        <f>O13-O12</f>
+        <v>3</v>
+      </c>
+      <c r="P16" s="1">
+        <f>P13-P12</f>
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="4" t="s">
@@ -3659,8 +3716,20 @@
       <c r="K17" s="3">
         <v>1</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
+      <c r="N17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="10">
+        <f>O15-O12</f>
+        <v>3</v>
+      </c>
+      <c r="P17" s="10">
+        <f>P15-P12</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="4" t="s">
@@ -3677,40 +3746,55 @@
         <f>L12+L16*K17</f>
         <v>2.7071067811865475</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="10">
+        <f>(O17*O16)+(P17*P16)</f>
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M19" s="1"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
+      <c r="N19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="10">
+        <f>(O16^2)+(P16^2)</f>
+        <v>18</v>
+      </c>
       <c r="P19" s="10"/>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="M20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="8">
-        <v>4</v>
-      </c>
-      <c r="P20" s="8">
-        <v>4</v>
+      <c r="N20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20">
+        <f>O18/O19</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q20" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
+      <c r="N21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21">
+        <f>MAX(0,MIN(1,O20))</f>
+        <v>0.66666666666666663</v>
+      </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="9:17" x14ac:dyDescent="0.25">
@@ -3730,14 +3814,33 @@
     <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="M24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="8">
+        <f>O12+(O21*O16)</f>
+        <v>4</v>
+      </c>
+      <c r="P24" s="8">
+        <f>P12+(O21*P16)</f>
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="Q25" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3747,6 +3850,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009908F051F1A7FA40B6E0D78DFA896E6F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22aea654b46515001aa88794d6829f47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d71ff2ac-62c7-44d6-abd7-1383af8796a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07c26ce5bf35373bcca599f98562b8" ns3:_="">
     <xsd:import namespace="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
@@ -3940,37 +4060,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d71ff2ac-62c7-44d6-abd7-1383af8796a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3992,9 +4085,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9786925A-CD28-47DD-B237-268CF7A5A0E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C20C216F-E735-4F5C-923D-AD37EFD24405}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d71ff2ac-62c7-44d6-abd7-1383af8796a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>